--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/A/20/seed4/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/A/20/seed4/result_data_RandomForest.xlsx
@@ -555,7 +555,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-22.08600000000002</v>
+        <v>-22.08130000000001</v>
       </c>
       <c r="B9" t="n">
         <v>4.86</v>
@@ -611,7 +611,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-22.34080000000001</v>
+        <v>-22.2899</v>
       </c>
       <c r="B13" t="n">
         <v>4.02</v>
@@ -653,7 +653,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-21.8155</v>
+        <v>-21.7617</v>
       </c>
       <c r="B16" t="n">
         <v>3.96</v>
@@ -681,7 +681,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-22.19170000000001</v>
+        <v>-22.0598</v>
       </c>
       <c r="B18" t="n">
         <v>4.35</v>
@@ -709,7 +709,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-21.27789999999998</v>
+        <v>-21.72019999999997</v>
       </c>
       <c r="B20" t="n">
         <v>10.19</v>
@@ -793,7 +793,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-21.05829999999997</v>
+        <v>-21.10699999999997</v>
       </c>
       <c r="B26" t="n">
         <v>6.56</v>
@@ -807,7 +807,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-22.0409</v>
+        <v>-21.9285</v>
       </c>
       <c r="B27" t="n">
         <v>5.54</v>
@@ -835,7 +835,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-21.23029999999996</v>
+        <v>-20.97759999999997</v>
       </c>
       <c r="B29" t="n">
         <v>7.52</v>
@@ -919,7 +919,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>-21.16119999999998</v>
+        <v>-21.64159999999998</v>
       </c>
       <c r="B35" t="n">
         <v>10.18</v>
@@ -933,7 +933,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-20.96369999999999</v>
+        <v>-20.80599999999999</v>
       </c>
       <c r="B36" t="n">
         <v>9.84</v>
@@ -1059,7 +1059,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>-21.38959999999999</v>
+        <v>-21.44769999999999</v>
       </c>
       <c r="B45" t="n">
         <v>5.73</v>
@@ -1199,7 +1199,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-22.2506</v>
+        <v>-22.1644</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
@@ -1227,7 +1227,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-22.39800000000001</v>
+        <v>-22.379</v>
       </c>
       <c r="B57" t="n">
         <v>4.82</v>
@@ -1395,7 +1395,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.61559999999999</v>
+        <v>-21.66639999999999</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1493,7 +1493,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-19.62429999999998</v>
+        <v>-19.61549999999999</v>
       </c>
       <c r="B76" t="n">
         <v>9.23</v>
@@ -1521,7 +1521,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-19.65589999999998</v>
+        <v>-19.80069999999998</v>
       </c>
       <c r="B78" t="n">
         <v>9.640000000000001</v>
@@ -1577,7 +1577,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-21.6043</v>
+        <v>-21.646</v>
       </c>
       <c r="B82" t="n">
         <v>5.26</v>
@@ -1591,7 +1591,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-21.70949999999999</v>
+        <v>-21.62329999999999</v>
       </c>
       <c r="B83" t="n">
         <v>5.84</v>
@@ -1731,7 +1731,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-21.44300000000002</v>
+        <v>-21.41860000000002</v>
       </c>
       <c r="B93" t="n">
         <v>4.28</v>
@@ -1787,7 +1787,7 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>-21.58649999999997</v>
+        <v>-21.53679999999998</v>
       </c>
       <c r="B97" t="n">
         <v>6.4</v>
